--- a/data/output/FV2304_FV2210/UTILMD/11013.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11013.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17842" uniqueCount="970">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17863" uniqueCount="970">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3145,6 +3145,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U814" totalsRowShown="0">
+  <autoFilter ref="A1:U814"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3434,7 +3464,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U814"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -41147,5 +41180,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11013.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11013.xlsx
@@ -5947,7 +5947,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -8229,7 +8229,7 @@
         <v>879</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -8433,7 +8433,7 @@
         <v>880</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -8637,7 +8637,7 @@
         <v>881</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -8841,7 +8841,7 @@
         <v>882</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -9373,7 +9373,7 @@
         <v>883</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -9581,7 +9581,7 @@
         <v>884</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -9729,7 +9729,7 @@
         <v>885</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -10303,7 +10303,7 @@
         <v>889</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -10507,7 +10507,7 @@
         <v>890</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -11019,7 +11019,7 @@
         <v>891</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -11421,7 +11421,7 @@
         <v>882</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -11709,7 +11709,7 @@
         <v>892</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -12067,7 +12067,7 @@
         <v>895</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -12313,7 +12313,7 @@
         <v>897</v>
       </c>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -12747,7 +12747,7 @@
         <v>899</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -13033,7 +13033,7 @@
         <v>900</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -13289,7 +13289,7 @@
         <v>899</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -13477,7 +13477,7 @@
         <v>901</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -13665,7 +13665,7 @@
         <v>899</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -13853,7 +13853,7 @@
         <v>902</v>
       </c>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -14041,7 +14041,7 @@
         <v>903</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -14329,7 +14329,7 @@
         <v>904</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -14613,7 +14613,7 @@
         <v>899</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -15011,7 +15011,7 @@
         <v>905</v>
       </c>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -15221,7 +15221,7 @@
         <v>902</v>
       </c>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -15563,7 +15563,7 @@
         <v>899</v>
       </c>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -15905,7 +15905,7 @@
         <v>899</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -16341,7 +16341,7 @@
         <v>907</v>
       </c>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -16493,7 +16493,7 @@
         <v>908</v>
       </c>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -16783,7 +16783,7 @@
         <v>909</v>
       </c>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -17041,7 +17041,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -17231,7 +17231,7 @@
         <v>889</v>
       </c>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -17529,7 +17529,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -17665,7 +17665,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -17869,7 +17869,7 @@
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -18077,7 +18077,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -18283,7 +18283,7 @@
         <v>899</v>
       </c>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -18491,7 +18491,7 @@
         <v>911</v>
       </c>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -18697,7 +18697,7 @@
         <v>899</v>
       </c>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -18943,7 +18943,7 @@
         <v>912</v>
       </c>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -19081,7 +19081,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -19343,7 +19343,7 @@
         <v>915</v>
       </c>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -19587,7 +19587,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="4"/>
-      <c r="M278" s="2" t="s">
+      <c r="M278" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N278" s="2" t="s">
@@ -19829,7 +19829,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -20181,7 +20181,7 @@
         <v>919</v>
       </c>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -20369,7 +20369,7 @@
         <v>919</v>
       </c>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -20613,7 +20613,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -20749,7 +20749,7 @@
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -20899,7 +20899,7 @@
       </c>
       <c r="K305" s="2"/>
       <c r="L305" s="4"/>
-      <c r="M305" s="2" t="s">
+      <c r="M305" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N305" s="2" t="s">
@@ -21103,7 +21103,7 @@
         <v>922</v>
       </c>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -21499,7 +21499,7 @@
         <v>923</v>
       </c>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -21749,7 +21749,7 @@
         <v>925</v>
       </c>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -21937,7 +21937,7 @@
         <v>899</v>
       </c>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -22075,7 +22075,7 @@
       </c>
       <c r="K329" s="2"/>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -22387,7 +22387,7 @@
         <v>926</v>
       </c>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -22633,7 +22633,7 @@
         <v>899</v>
       </c>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -22771,7 +22771,7 @@
       </c>
       <c r="K343" s="2"/>
       <c r="L343" s="4"/>
-      <c r="M343" s="2" t="s">
+      <c r="M343" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N343" s="2" t="s">
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K346" s="2"/>
       <c r="L346" s="4"/>
-      <c r="M346" s="2" t="s">
+      <c r="M346" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N346" s="2" t="s">
@@ -23051,7 +23051,7 @@
       </c>
       <c r="K349" s="2"/>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -23363,7 +23363,7 @@
       </c>
       <c r="K355" s="2"/>
       <c r="L355" s="4"/>
-      <c r="M355" s="2" t="s">
+      <c r="M355" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N355" s="2" t="s">
@@ -23515,7 +23515,7 @@
         <v>927</v>
       </c>
       <c r="L358" s="4"/>
-      <c r="M358" s="2" t="s">
+      <c r="M358" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N358" s="2" t="s">
@@ -23723,7 +23723,7 @@
         <v>928</v>
       </c>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -23929,7 +23929,7 @@
         <v>929</v>
       </c>
       <c r="L366" s="4"/>
-      <c r="M366" s="2" t="s">
+      <c r="M366" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N366" s="2" t="s">
@@ -24067,7 +24067,7 @@
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -24211,7 +24211,7 @@
       </c>
       <c r="K372" s="2"/>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -24347,7 +24347,7 @@
       </c>
       <c r="K375" s="2"/>
       <c r="L375" s="4"/>
-      <c r="M375" s="2" t="s">
+      <c r="M375" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N375" s="2" t="s">
@@ -24983,7 +24983,7 @@
         <v>932</v>
       </c>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -25121,7 +25121,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -25265,7 +25265,7 @@
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -25509,7 +25509,7 @@
         <v>933</v>
       </c>
       <c r="L398" s="4"/>
-      <c r="M398" s="2" t="s">
+      <c r="M398" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N398" s="2" t="s">
@@ -25889,7 +25889,7 @@
         <v>934</v>
       </c>
       <c r="L406" s="4"/>
-      <c r="M406" s="2" t="s">
+      <c r="M406" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N406" s="2" t="s">
@@ -26027,7 +26027,7 @@
       </c>
       <c r="K409" s="2"/>
       <c r="L409" s="4"/>
-      <c r="M409" s="2" t="s">
+      <c r="M409" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N409" s="2" t="s">
@@ -26179,7 +26179,7 @@
         <v>936</v>
       </c>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -26325,7 +26325,7 @@
       </c>
       <c r="K415" s="2"/>
       <c r="L415" s="4"/>
-      <c r="M415" s="2" t="s">
+      <c r="M415" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N415" s="2" t="s">
@@ -26461,7 +26461,7 @@
       </c>
       <c r="K418" s="2"/>
       <c r="L418" s="4"/>
-      <c r="M418" s="2" t="s">
+      <c r="M418" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N418" s="2" t="s">
@@ -26715,7 +26715,7 @@
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="4"/>
-      <c r="M423" s="2" t="s">
+      <c r="M423" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N423" s="2" t="s">
@@ -26861,7 +26861,7 @@
         <v>899</v>
       </c>
       <c r="L426" s="4"/>
-      <c r="M426" s="2" t="s">
+      <c r="M426" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N426" s="2" t="s">
@@ -27257,7 +27257,7 @@
         <v>902</v>
       </c>
       <c r="L434" s="4"/>
-      <c r="M434" s="2" t="s">
+      <c r="M434" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N434" s="2" t="s">
@@ -27545,7 +27545,7 @@
         <v>937</v>
       </c>
       <c r="L440" s="4"/>
-      <c r="M440" s="2" t="s">
+      <c r="M440" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N440" s="2" t="s">
@@ -27683,7 +27683,7 @@
       </c>
       <c r="K443" s="2"/>
       <c r="L443" s="4"/>
-      <c r="M443" s="2" t="s">
+      <c r="M443" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N443" s="2" t="s">
@@ -27835,7 +27835,7 @@
         <v>938</v>
       </c>
       <c r="L446" s="4"/>
-      <c r="M446" s="2" t="s">
+      <c r="M446" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N446" s="2" t="s">
@@ -27981,7 +27981,7 @@
       </c>
       <c r="K449" s="2"/>
       <c r="L449" s="4"/>
-      <c r="M449" s="2" t="s">
+      <c r="M449" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N449" s="2" t="s">
@@ -29141,7 +29141,7 @@
         <v>902</v>
       </c>
       <c r="L471" s="4"/>
-      <c r="M471" s="2" t="s">
+      <c r="M471" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N471" s="2" t="s">
@@ -30319,7 +30319,7 @@
       </c>
       <c r="K493" s="2"/>
       <c r="L493" s="4"/>
-      <c r="M493" s="2" t="s">
+      <c r="M493" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N493" s="2" t="s">
@@ -30467,7 +30467,7 @@
         <v>941</v>
       </c>
       <c r="L496" s="4"/>
-      <c r="M496" s="2" t="s">
+      <c r="M496" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N496" s="2" t="s">
@@ -30675,7 +30675,7 @@
         <v>899</v>
       </c>
       <c r="L500" s="4"/>
-      <c r="M500" s="2" t="s">
+      <c r="M500" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N500" s="2" t="s">
@@ -30829,7 +30829,7 @@
         <v>899</v>
       </c>
       <c r="L503" s="4"/>
-      <c r="M503" s="2" t="s">
+      <c r="M503" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N503" s="2" t="s">
@@ -31035,7 +31035,7 @@
         <v>942</v>
       </c>
       <c r="L507" s="4"/>
-      <c r="M507" s="2" t="s">
+      <c r="M507" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N507" s="2" t="s">
@@ -31323,7 +31323,7 @@
         <v>943</v>
       </c>
       <c r="L513" s="4"/>
-      <c r="M513" s="2" t="s">
+      <c r="M513" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N513" s="2" t="s">
@@ -31461,7 +31461,7 @@
       </c>
       <c r="K516" s="2"/>
       <c r="L516" s="4"/>
-      <c r="M516" s="2" t="s">
+      <c r="M516" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N516" s="2" t="s">
@@ -31609,7 +31609,7 @@
       </c>
       <c r="K519" s="2"/>
       <c r="L519" s="4"/>
-      <c r="M519" s="2" t="s">
+      <c r="M519" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N519" s="2" t="s">
@@ -31745,7 +31745,7 @@
       </c>
       <c r="K522" s="2"/>
       <c r="L522" s="4"/>
-      <c r="M522" s="2" t="s">
+      <c r="M522" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N522" s="2" t="s">
@@ -31891,7 +31891,7 @@
         <v>943</v>
       </c>
       <c r="L525" s="4"/>
-      <c r="M525" s="2" t="s">
+      <c r="M525" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N525" s="2" t="s">
@@ -32029,7 +32029,7 @@
       </c>
       <c r="K528" s="2"/>
       <c r="L528" s="4"/>
-      <c r="M528" s="2" t="s">
+      <c r="M528" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N528" s="2" t="s">
@@ -32173,7 +32173,7 @@
       </c>
       <c r="K531" s="2"/>
       <c r="L531" s="4"/>
-      <c r="M531" s="2" t="s">
+      <c r="M531" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N531" s="2" t="s">
@@ -32309,7 +32309,7 @@
       </c>
       <c r="K534" s="2"/>
       <c r="L534" s="4"/>
-      <c r="M534" s="2" t="s">
+      <c r="M534" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N534" s="2" t="s">
@@ -32455,7 +32455,7 @@
       </c>
       <c r="K537" s="2"/>
       <c r="L537" s="4"/>
-      <c r="M537" s="2" t="s">
+      <c r="M537" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N537" s="2" t="s">
@@ -32659,7 +32659,7 @@
         <v>944</v>
       </c>
       <c r="L541" s="4"/>
-      <c r="M541" s="2" t="s">
+      <c r="M541" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N541" s="2" t="s">
@@ -32799,7 +32799,7 @@
         <v>945</v>
       </c>
       <c r="L544" s="4"/>
-      <c r="M544" s="2" t="s">
+      <c r="M544" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N544" s="2" t="s">
@@ -33059,7 +33059,7 @@
       </c>
       <c r="K549" s="2"/>
       <c r="L549" s="4"/>
-      <c r="M549" s="2" t="s">
+      <c r="M549" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N549" s="2" t="s">
@@ -33211,7 +33211,7 @@
         <v>947</v>
       </c>
       <c r="L552" s="4"/>
-      <c r="M552" s="2" t="s">
+      <c r="M552" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N552" s="2" t="s">
@@ -33359,7 +33359,7 @@
       </c>
       <c r="K555" s="2"/>
       <c r="L555" s="4"/>
-      <c r="M555" s="2" t="s">
+      <c r="M555" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N555" s="2" t="s">
@@ -33563,7 +33563,7 @@
         <v>949</v>
       </c>
       <c r="L559" s="4"/>
-      <c r="M559" s="2" t="s">
+      <c r="M559" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N559" s="2" t="s">
@@ -33959,7 +33959,7 @@
         <v>950</v>
       </c>
       <c r="L567" s="4"/>
-      <c r="M567" s="2" t="s">
+      <c r="M567" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N567" s="2" t="s">
@@ -34209,7 +34209,7 @@
         <v>925</v>
       </c>
       <c r="L572" s="4"/>
-      <c r="M572" s="2" t="s">
+      <c r="M572" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N572" s="2" t="s">
@@ -34397,7 +34397,7 @@
         <v>951</v>
       </c>
       <c r="L576" s="4"/>
-      <c r="M576" s="2" t="s">
+      <c r="M576" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N576" s="2" t="s">
@@ -34731,7 +34731,7 @@
         <v>952</v>
       </c>
       <c r="L583" s="4"/>
-      <c r="M583" s="2" t="s">
+      <c r="M583" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N583" s="2" t="s">
@@ -34919,7 +34919,7 @@
         <v>953</v>
       </c>
       <c r="L587" s="4"/>
-      <c r="M587" s="2" t="s">
+      <c r="M587" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N587" s="2" t="s">
@@ -35165,7 +35165,7 @@
         <v>954</v>
       </c>
       <c r="L592" s="4"/>
-      <c r="M592" s="2" t="s">
+      <c r="M592" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N592" s="2" t="s">
@@ -35303,7 +35303,7 @@
       </c>
       <c r="K595" s="2"/>
       <c r="L595" s="4"/>
-      <c r="M595" s="2" t="s">
+      <c r="M595" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N595" s="2" t="s">
@@ -35447,7 +35447,7 @@
       </c>
       <c r="K598" s="2"/>
       <c r="L598" s="4"/>
-      <c r="M598" s="2" t="s">
+      <c r="M598" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N598" s="2" t="s">
@@ -35585,7 +35585,7 @@
         <v>955</v>
       </c>
       <c r="L601" s="4"/>
-      <c r="M601" s="2" t="s">
+      <c r="M601" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N601" s="2" t="s">
@@ -35733,7 +35733,7 @@
       </c>
       <c r="K604" s="2"/>
       <c r="L604" s="4"/>
-      <c r="M604" s="2" t="s">
+      <c r="M604" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N604" s="2" t="s">
@@ -36045,7 +36045,7 @@
         <v>957</v>
       </c>
       <c r="L610" s="4"/>
-      <c r="M610" s="2" t="s">
+      <c r="M610" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N610" s="2" t="s">
@@ -36183,7 +36183,7 @@
       </c>
       <c r="K613" s="2"/>
       <c r="L613" s="4"/>
-      <c r="M613" s="2" t="s">
+      <c r="M613" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N613" s="2" t="s">
@@ -36327,7 +36327,7 @@
       </c>
       <c r="K616" s="2"/>
       <c r="L616" s="4"/>
-      <c r="M616" s="2" t="s">
+      <c r="M616" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N616" s="2" t="s">
@@ -36463,7 +36463,7 @@
       </c>
       <c r="K619" s="2"/>
       <c r="L619" s="4"/>
-      <c r="M619" s="2" t="s">
+      <c r="M619" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N619" s="2" t="s">
@@ -36609,7 +36609,7 @@
       </c>
       <c r="K622" s="2"/>
       <c r="L622" s="4"/>
-      <c r="M622" s="2" t="s">
+      <c r="M622" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N622" s="2" t="s">
@@ -36975,7 +36975,7 @@
         <v>958</v>
       </c>
       <c r="L629" s="4"/>
-      <c r="M629" s="2" t="s">
+      <c r="M629" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N629" s="2" t="s">
@@ -37113,7 +37113,7 @@
       </c>
       <c r="K632" s="2"/>
       <c r="L632" s="4"/>
-      <c r="M632" s="2" t="s">
+      <c r="M632" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N632" s="2" t="s">
@@ -37257,7 +37257,7 @@
       </c>
       <c r="K635" s="2"/>
       <c r="L635" s="4"/>
-      <c r="M635" s="2" t="s">
+      <c r="M635" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N635" s="2" t="s">
@@ -37393,7 +37393,7 @@
       </c>
       <c r="K638" s="2"/>
       <c r="L638" s="4"/>
-      <c r="M638" s="2" t="s">
+      <c r="M638" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N638" s="2" t="s">
@@ -37539,7 +37539,7 @@
       </c>
       <c r="K641" s="2"/>
       <c r="L641" s="4"/>
-      <c r="M641" s="2" t="s">
+      <c r="M641" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N641" s="2" t="s">
@@ -37689,7 +37689,7 @@
         <v>958</v>
       </c>
       <c r="L644" s="4"/>
-      <c r="M644" s="2" t="s">
+      <c r="M644" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N644" s="2" t="s">
@@ -37961,7 +37961,7 @@
       </c>
       <c r="K650" s="2"/>
       <c r="L650" s="4"/>
-      <c r="M650" s="2" t="s">
+      <c r="M650" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N650" s="2" t="s">
@@ -38111,7 +38111,7 @@
         <v>960</v>
       </c>
       <c r="L653" s="4"/>
-      <c r="M653" s="2" t="s">
+      <c r="M653" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N653" s="2" t="s">
@@ -38249,7 +38249,7 @@
       </c>
       <c r="K656" s="2"/>
       <c r="L656" s="4"/>
-      <c r="M656" s="2" t="s">
+      <c r="M656" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N656" s="2" t="s">
@@ -38395,7 +38395,7 @@
       </c>
       <c r="K659" s="2"/>
       <c r="L659" s="4"/>
-      <c r="M659" s="2" t="s">
+      <c r="M659" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N659" s="2" t="s">
@@ -38543,7 +38543,7 @@
       </c>
       <c r="K662" s="2"/>
       <c r="L662" s="4"/>
-      <c r="M662" s="2" t="s">
+      <c r="M662" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N662" s="2" t="s">
@@ -38679,7 +38679,7 @@
       </c>
       <c r="K665" s="2"/>
       <c r="L665" s="4"/>
-      <c r="M665" s="2" t="s">
+      <c r="M665" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N665" s="2" t="s">
@@ -38829,7 +38829,7 @@
         <v>961</v>
       </c>
       <c r="L668" s="4"/>
-      <c r="M668" s="2" t="s">
+      <c r="M668" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N668" s="2" t="s">
@@ -38965,7 +38965,7 @@
       </c>
       <c r="K671" s="2"/>
       <c r="L671" s="4"/>
-      <c r="M671" s="2" t="s">
+      <c r="M671" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N671" s="2" t="s">
@@ -39209,7 +39209,7 @@
       </c>
       <c r="K676" s="2"/>
       <c r="L676" s="4"/>
-      <c r="M676" s="2" t="s">
+      <c r="M676" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N676" s="2" t="s">
@@ -39407,7 +39407,7 @@
       </c>
       <c r="K680" s="2"/>
       <c r="L680" s="4"/>
-      <c r="M680" s="2" t="s">
+      <c r="M680" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N680" s="2" t="s">
@@ -39809,7 +39809,7 @@
         <v>963</v>
       </c>
       <c r="L688" s="4"/>
-      <c r="M688" s="2" t="s">
+      <c r="M688" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N688" s="2" t="s">
@@ -39947,7 +39947,7 @@
       </c>
       <c r="K691" s="2"/>
       <c r="L691" s="4"/>
-      <c r="M691" s="2" t="s">
+      <c r="M691" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N691" s="2" t="s">
@@ -40095,7 +40095,7 @@
       </c>
       <c r="K694" s="2"/>
       <c r="L694" s="4"/>
-      <c r="M694" s="2" t="s">
+      <c r="M694" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N694" s="2" t="s">
@@ -40435,7 +40435,7 @@
         <v>965</v>
       </c>
       <c r="L701" s="4"/>
-      <c r="M701" s="2" t="s">
+      <c r="M701" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N701" s="2" t="s">
@@ -40573,7 +40573,7 @@
       </c>
       <c r="K704" s="2"/>
       <c r="L704" s="4"/>
-      <c r="M704" s="2" t="s">
+      <c r="M704" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N704" s="2" t="s">
@@ -40721,7 +40721,7 @@
       </c>
       <c r="K707" s="2"/>
       <c r="L707" s="4"/>
-      <c r="M707" s="2" t="s">
+      <c r="M707" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N707" s="2" t="s">
@@ -40947,7 +40947,7 @@
       </c>
       <c r="K712" s="2"/>
       <c r="L712" s="4"/>
-      <c r="M712" s="2" t="s">
+      <c r="M712" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N712" s="2" t="s">
@@ -41281,7 +41281,7 @@
       </c>
       <c r="K719" s="2"/>
       <c r="L719" s="4"/>
-      <c r="M719" s="2" t="s">
+      <c r="M719" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N719" s="2" t="s">
@@ -41683,7 +41683,7 @@
         <v>966</v>
       </c>
       <c r="L727" s="4"/>
-      <c r="M727" s="2" t="s">
+      <c r="M727" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N727" s="2" t="s">
@@ -41979,7 +41979,7 @@
       </c>
       <c r="K733" s="2"/>
       <c r="L733" s="4"/>
-      <c r="M733" s="2" t="s">
+      <c r="M733" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N733" s="2" t="s">
@@ -42129,7 +42129,7 @@
         <v>967</v>
       </c>
       <c r="L736" s="4"/>
-      <c r="M736" s="2" t="s">
+      <c r="M736" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N736" s="2" t="s">
@@ -42629,7 +42629,7 @@
       </c>
       <c r="K746" s="2"/>
       <c r="L746" s="4"/>
-      <c r="M746" s="2" t="s">
+      <c r="M746" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N746" s="2" t="s">
@@ -42777,7 +42777,7 @@
       </c>
       <c r="K749" s="2"/>
       <c r="L749" s="4"/>
-      <c r="M749" s="2" t="s">
+      <c r="M749" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N749" s="2" t="s">
@@ -43071,7 +43071,7 @@
       </c>
       <c r="K755" s="2"/>
       <c r="L755" s="4"/>
-      <c r="M755" s="2" t="s">
+      <c r="M755" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N755" s="2" t="s">
@@ -43219,7 +43219,7 @@
       </c>
       <c r="K758" s="2"/>
       <c r="L758" s="4"/>
-      <c r="M758" s="2" t="s">
+      <c r="M758" s="3" t="s">
         <v>157</v>
       </c>
       <c r="N758" s="2" t="s">
@@ -43717,7 +43717,7 @@
       </c>
       <c r="K768" s="2"/>
       <c r="L768" s="4"/>
-      <c r="M768" s="2" t="s">
+      <c r="M768" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N768" s="2" t="s">
@@ -43865,7 +43865,7 @@
       </c>
       <c r="K771" s="2"/>
       <c r="L771" s="4"/>
-      <c r="M771" s="2" t="s">
+      <c r="M771" s="3" t="s">
         <v>158</v>
       </c>
       <c r="N771" s="2" t="s">
@@ -44361,7 +44361,7 @@
       </c>
       <c r="K781" s="2"/>
       <c r="L781" s="4"/>
-      <c r="M781" s="2" t="s">
+      <c r="M781" s="3" t="s">
         <v>159</v>
       </c>
       <c r="N781" s="2" t="s">
@@ -44857,7 +44857,7 @@
       </c>
       <c r="K791" s="2"/>
       <c r="L791" s="4"/>
-      <c r="M791" s="2" t="s">
+      <c r="M791" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N791" s="2" t="s">
@@ -45247,7 +45247,7 @@
         <v>970</v>
       </c>
       <c r="L799" s="4"/>
-      <c r="M799" s="2" t="s">
+      <c r="M799" s="3" t="s">
         <v>161</v>
       </c>
       <c r="N799" s="2" t="s">
@@ -45747,7 +45747,7 @@
       </c>
       <c r="K809" s="2"/>
       <c r="L809" s="4"/>
-      <c r="M809" s="2" t="s">
+      <c r="M809" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N809" s="2" t="s">
@@ -45895,7 +45895,7 @@
       </c>
       <c r="K812" s="2"/>
       <c r="L812" s="4"/>
-      <c r="M812" s="2" t="s">
+      <c r="M812" s="3" t="s">
         <v>162</v>
       </c>
       <c r="N812" s="2"/>
